--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43498</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E8" s="3">
         <v>42300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100300</v>
       </c>
-      <c r="G8" s="3">
-        <v>69500</v>
-      </c>
       <c r="H8" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I8" s="3">
         <v>34300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>127400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E9" s="3">
         <v>37900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>77800</v>
       </c>
-      <c r="G9" s="3">
-        <v>46400</v>
-      </c>
       <c r="H9" s="3">
+        <v>25900</v>
+      </c>
+      <c r="I9" s="3">
         <v>31200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>90600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="3">
         <v>4400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22500</v>
       </c>
-      <c r="G10" s="3">
-        <v>23100</v>
-      </c>
       <c r="H10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,26 +902,29 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>7900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>59700</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -912,25 +935,28 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
+        <v>500</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
-        <v>1100</v>
-      </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E17" s="3">
         <v>42800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>119600</v>
       </c>
-      <c r="G17" s="3">
-        <v>92300</v>
-      </c>
       <c r="H17" s="3">
+        <v>31500</v>
+      </c>
+      <c r="I17" s="3">
         <v>37800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>192900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-22800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-65500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1034,42 +1068,48 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-21700</v>
-      </c>
       <c r="H21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-63100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1077,68 +1117,74 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-23100</v>
-      </c>
       <c r="H23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-65700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1150,13 +1196,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-23200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-65700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-23200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-65700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,26 +1343,29 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I29" s="3">
         <v>-4400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1382,42 +1452,48 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-65700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-65700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43498</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1620,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,124 +1682,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E44" s="3">
         <v>20600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>101100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>94800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>106100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>106200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E46" s="3">
         <v>28200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>80100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>114200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>132200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>132800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>115400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,66 +1842,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1970,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="E52" s="3">
         <v>9800</v>
       </c>
       <c r="F52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="G52" s="3">
         <v>10500</v>
       </c>
       <c r="H52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I52" s="3">
         <v>9400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E54" s="3">
         <v>44600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>141500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>150200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>151000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>138000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,136 +2096,149 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E57" s="3">
         <v>9900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>15100</v>
       </c>
       <c r="K59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E60" s="3">
         <v>17400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>80200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>72900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E61" s="3">
         <v>5400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2111,37 +2254,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E62" s="3">
         <v>22200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E66" s="3">
         <v>45000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>116600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-115300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-114400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-109000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-89300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-66200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>63700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43498</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-65700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2647,25 +2846,28 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>1300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J83" s="3">
         <v>1000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2300</v>
       </c>
       <c r="K83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2863,25 +3084,28 @@
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-800</v>
       </c>
       <c r="J91" s="3">
         <v>-800</v>
       </c>
       <c r="K91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3165,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,28 +3177,31 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>11500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-600</v>
       </c>
       <c r="H94" s="3">
         <v>-600</v>
       </c>
       <c r="I94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="J94" s="3">
         <v>-800</v>
       </c>
       <c r="K94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3339,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3403,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43953</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43862</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43771</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43680</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43589</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43498</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E8" s="3">
         <v>38900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>42300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31600</v>
       </c>
-      <c r="G8" s="3">
-        <v>100300</v>
-      </c>
       <c r="H8" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I8" s="3">
         <v>28600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>127400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E9" s="3">
         <v>35000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28300</v>
       </c>
-      <c r="G9" s="3">
-        <v>77800</v>
-      </c>
       <c r="H9" s="3">
+        <v>32900</v>
+      </c>
+      <c r="I9" s="3">
         <v>25900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>90600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3300</v>
       </c>
-      <c r="G10" s="3">
-        <v>22500</v>
-      </c>
       <c r="H10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +840,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +873,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,13 +908,16 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -905,31 +925,34 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>7900</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>800</v>
+      </c>
+      <c r="I14" s="3">
         <v>16000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>59700</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -938,25 +961,28 @@
         <v>500</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="I15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
-        <v>400</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E17" s="3">
         <v>39500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36800</v>
       </c>
-      <c r="G17" s="3">
-        <v>119600</v>
-      </c>
       <c r="H17" s="3">
+        <v>39500</v>
+      </c>
+      <c r="I17" s="3">
         <v>31500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>192900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-19300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-65500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,168 +1077,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
-        <v>-4700</v>
+        <v>-400</v>
       </c>
       <c r="G21" s="3">
-        <v>-17900</v>
+        <v>-4900</v>
       </c>
       <c r="H21" s="3">
         <v>-1800</v>
       </c>
       <c r="I21" s="3">
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="J21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-63100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-19600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-65700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-19700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-65700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-19700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-65700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,26 +1407,29 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="I29" s="3">
         <v>-20100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-4400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1495,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-65700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-65700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43953</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43862</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43771</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43680</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43589</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43498</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1707,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,136 +1775,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E44" s="3">
         <v>27200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>101100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>94800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>106100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>106200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E46" s="3">
         <v>33900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>80100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>114200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>132200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>132800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>115400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,72 +1950,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="G49" s="3">
-        <v>3500</v>
-      </c>
       <c r="H49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I49" s="3">
         <v>2800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,40 +2090,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>9800</v>
       </c>
       <c r="F52" s="3">
         <v>9800</v>
       </c>
       <c r="G52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="H52" s="3">
         <v>10500</v>
       </c>
       <c r="I52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J52" s="3">
         <v>9400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2160,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E54" s="3">
         <v>49400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>141500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>150200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>151000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>138000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,151 +2227,164 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>67400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>15100</v>
       </c>
       <c r="L59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>80200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>72900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E61" s="3">
         <v>5200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2257,40 +2400,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E62" s="3">
         <v>18300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2540,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E66" s="3">
         <v>47200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>116600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>95000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2730,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-112700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-115300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-114400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-109000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-89300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-66200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-50200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2870,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43953</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43862</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43771</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43680</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43589</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43498</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-65700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,13 +3032,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -2849,25 +3048,28 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>1300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1100</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
       </c>
       <c r="J83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2300</v>
       </c>
       <c r="L83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3292,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3087,25 +3308,28 @@
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-800</v>
       </c>
       <c r="K91" s="3">
         <v>-800</v>
       </c>
       <c r="L91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3395,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3180,28 +3410,31 @@
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
         <v>11500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-600</v>
       </c>
       <c r="I94" s="3">
         <v>-600</v>
       </c>
       <c r="J94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="K94" s="3">
         <v>-800</v>
       </c>
       <c r="L94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,40 +3585,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,36 +3655,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44044</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43953</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43862</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43771</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43680</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43589</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43498</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E8" s="3">
         <v>45500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>127400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E9" s="3">
         <v>40900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>90600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E10" s="3">
         <v>4600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,16 +928,19 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -928,26 +948,29 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>59700</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,7 +978,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
@@ -964,25 +987,28 @@
         <v>500</v>
       </c>
       <c r="H15" s="3">
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
         <v>1800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E17" s="3">
         <v>45000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>192900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-65500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,78 +1111,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-400</v>
       </c>
       <c r="F20" s="3">
         <v>-400</v>
       </c>
       <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-200</v>
       </c>
       <c r="J20" s="3">
         <v>-200</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-400</v>
       </c>
       <c r="F21" s="3">
         <v>-400</v>
       </c>
       <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-63100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1175,51 +1215,57 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-65700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1227,11 +1273,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1248,13 +1294,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-65700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-65700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,13 +1451,16 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1411,25 +1472,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-16500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-20100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,78 +1565,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>400</v>
       </c>
       <c r="F32" s="3">
         <v>400</v>
       </c>
       <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>200</v>
       </c>
       <c r="J32" s="3">
         <v>200</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-65700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-65700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44044</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43953</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43862</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43771</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43680</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43589</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43498</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1794,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,148 +1868,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E44" s="3">
         <v>24500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>27200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>101100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>94800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>106100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>106200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E46" s="3">
         <v>30800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>80100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>114200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>132200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>132800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>115400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,8 +2058,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1962,69 +2070,75 @@
         <v>5000</v>
       </c>
       <c r="E48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,43 +2210,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>9800</v>
       </c>
       <c r="G52" s="3">
         <v>9800</v>
       </c>
       <c r="H52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="I52" s="3">
         <v>10500</v>
       </c>
       <c r="J52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K52" s="3">
         <v>9400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E54" s="3">
         <v>45300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>141500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>150200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>151000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,148 +2358,161 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>15100</v>
       </c>
       <c r="M59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E60" s="3">
         <v>20000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2377,17 +2520,17 @@
         <v>5300</v>
       </c>
       <c r="E61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F61" s="3">
         <v>5200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2403,43 +2546,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E62" s="3">
         <v>18400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E66" s="3">
         <v>43800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>44800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>116600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-112900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-112700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-115300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-114400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-89300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-66200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-50200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44044</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43953</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43862</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43771</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43680</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43589</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43498</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-65700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3231,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3042,7 +3241,7 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -3051,25 +3250,28 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>1300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1100</v>
       </c>
       <c r="J83" s="3">
         <v>1100</v>
       </c>
       <c r="K83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L83" s="3">
         <v>1000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2300</v>
       </c>
       <c r="M83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,13 +3513,14 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
@@ -3311,25 +3532,28 @@
         <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-800</v>
       </c>
       <c r="L91" s="3">
         <v>-800</v>
       </c>
       <c r="M91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,13 +3625,16 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
@@ -3413,28 +3643,31 @@
         <v>-300</v>
       </c>
       <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
         <v>11500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-600</v>
       </c>
       <c r="J94" s="3">
         <v>-600</v>
       </c>
       <c r="K94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="L94" s="3">
         <v>-800</v>
       </c>
       <c r="M94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,43 +3831,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3658,39 +3907,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43953</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43862</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43771</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43680</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43589</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43498</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E8" s="3">
         <v>40600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>28600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>127400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E9" s="3">
         <v>30800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>90600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E10" s="3">
         <v>9800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,19 +948,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -951,26 +971,29 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>59700</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,7 +1004,7 @@
         <v>600</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -990,25 +1013,28 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
         <v>1800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E17" s="3">
         <v>41500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>42800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>192900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-65500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,84 +1145,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-400</v>
       </c>
       <c r="H20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-400</v>
       </c>
       <c r="G21" s="3">
         <v>-400</v>
       </c>
       <c r="H21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-63100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1218,54 +1258,60 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-65700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1276,11 +1322,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-3500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1297,13 +1343,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-65700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-65700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,16 +1512,19 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1475,25 +1536,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-16500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-20100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>400</v>
       </c>
       <c r="H32" s="3">
+        <v>400</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-65700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-65700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43953</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43862</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43771</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43680</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43589</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43498</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,160 +1961,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E44" s="3">
         <v>22600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>27200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>20600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>101100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>94800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>55100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>106100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>106200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E46" s="3">
         <v>32500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>80100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>114200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>132200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>132800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>115400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,84 +2166,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="E48" s="3">
         <v>5000</v>
       </c>
       <c r="F48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2330,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
         <v>8700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>9800</v>
       </c>
       <c r="H52" s="3">
         <v>9800</v>
       </c>
       <c r="I52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="J52" s="3">
         <v>10500</v>
       </c>
       <c r="K52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="L52" s="3">
         <v>9400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>141500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>150200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>151000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,181 +2489,194 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>15100</v>
       </c>
       <c r="N59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E60" s="3">
         <v>10900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E61" s="3">
         <v>5300</v>
       </c>
       <c r="F61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G61" s="3">
         <v>5200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2549,46 +2692,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E62" s="3">
         <v>18100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E66" s="3">
         <v>34300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>116600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>95000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-114200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-114300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-112900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-112700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-115300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-109000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-89300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-66200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-50200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E76" s="3">
         <v>12300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43953</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43862</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43771</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43680</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43589</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43498</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-65700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3244,7 +3443,7 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -3253,25 +3452,28 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>1300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1100</v>
       </c>
       <c r="K83" s="3">
         <v>1100</v>
       </c>
       <c r="L83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M83" s="3">
         <v>1000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2300</v>
       </c>
       <c r="N83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,16 +3734,17 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
@@ -3535,25 +3756,28 @@
         <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-800</v>
       </c>
       <c r="M91" s="3">
         <v>-800</v>
       </c>
       <c r="N91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,16 +3855,19 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-300</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
@@ -3646,28 +3876,31 @@
         <v>-300</v>
       </c>
       <c r="H94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I94" s="3">
         <v>11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-600</v>
       </c>
       <c r="K94" s="3">
         <v>-600</v>
       </c>
       <c r="L94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="M94" s="3">
         <v>-800</v>
       </c>
       <c r="N94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,46 +4077,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3910,42 +4159,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44044</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43953</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43862</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43771</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43680</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43589</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43498</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E8" s="3">
         <v>34900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>127400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E9" s="3">
         <v>26100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>35000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>28300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>90600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,22 +968,25 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1900</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -974,31 +994,34 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>59700</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
@@ -1007,7 +1030,7 @@
         <v>600</v>
       </c>
       <c r="G15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
@@ -1016,25 +1039,28 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
+        <v>500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E17" s="3">
         <v>34400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>42800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>192900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-65500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,90 +1179,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-400</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
       </c>
       <c r="I20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-200</v>
       </c>
       <c r="L20" s="3">
         <v>-200</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-400</v>
       </c>
       <c r="H21" s="3">
         <v>-400</v>
       </c>
       <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-63100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1261,57 +1301,63 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-65700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1325,11 +1371,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-3500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1346,13 +1392,16 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-65700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-65700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1526,8 +1587,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1539,25 +1600,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-16500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-20100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>400</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
       </c>
       <c r="I32" s="3">
+        <v>400</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>200</v>
       </c>
       <c r="L32" s="3">
         <v>200</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-65700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-65700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44044</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43953</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43862</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43771</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43680</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43589</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43498</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,172 +2054,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E44" s="3">
         <v>25000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>24500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>27200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>101100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>94800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>55100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>106100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>106200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E46" s="3">
         <v>32600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>80100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>114200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>132200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>132800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>115400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,90 +2274,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5000</v>
       </c>
       <c r="F48" s="3">
         <v>5000</v>
       </c>
       <c r="G48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2450,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9800</v>
       </c>
       <c r="I52" s="3">
         <v>9800</v>
       </c>
       <c r="J52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="K52" s="3">
         <v>10500</v>
       </c>
       <c r="L52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="M52" s="3">
         <v>9400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E54" s="3">
         <v>46000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>97800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>141500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>151000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>138000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,196 +2620,209 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>15100</v>
       </c>
       <c r="O59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>80200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>72900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E61" s="3">
         <v>5500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5300</v>
       </c>
       <c r="F61" s="3">
         <v>5300</v>
       </c>
       <c r="G61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H61" s="3">
         <v>5200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2695,49 +2838,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E62" s="3">
         <v>17700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E66" s="3">
         <v>33400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>116600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>95000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-115100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-114200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-114300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-112900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-112700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-115300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-109000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-89300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-66200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E76" s="3">
         <v>12700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44044</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43953</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43862</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43771</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43680</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43589</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43498</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-65700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,7 +3645,7 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -3455,25 +3654,28 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1100</v>
       </c>
       <c r="L83" s="3">
         <v>1100</v>
       </c>
       <c r="M83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N83" s="3">
         <v>1000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2300</v>
       </c>
       <c r="O83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3744,10 +3965,10 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
@@ -3759,25 +3980,28 @@
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-800</v>
       </c>
       <c r="N91" s="3">
         <v>-800</v>
       </c>
       <c r="O91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,8 +4085,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3867,10 +4097,10 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-300</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
@@ -3879,28 +4109,31 @@
         <v>-300</v>
       </c>
       <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
         <v>11500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-600</v>
       </c>
       <c r="L94" s="3">
         <v>-600</v>
       </c>
       <c r="M94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="N94" s="3">
         <v>-800</v>
       </c>
       <c r="O94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,49 +4323,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,45 +4411,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,221 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44499</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43771</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43680</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43589</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43498</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>127400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E9" s="3">
         <v>24200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30800</v>
       </c>
-      <c r="G9" s="3">
-        <v>40900</v>
-      </c>
       <c r="H9" s="3">
+        <v>17800</v>
+      </c>
+      <c r="I9" s="3">
         <v>35000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>90600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E10" s="3">
         <v>8000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9800</v>
       </c>
-      <c r="G10" s="3">
-        <v>4600</v>
-      </c>
       <c r="H10" s="3">
+        <v>27700</v>
+      </c>
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +896,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -927,8 +941,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,25 +988,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1900</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -997,34 +1017,37 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>59700</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
@@ -1033,7 +1056,7 @@
         <v>600</v>
       </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -1042,25 +1065,28 @@
         <v>500</v>
       </c>
       <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
         <v>1800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1100,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E17" s="3">
         <v>34200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>192900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-65500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,96 +1213,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
       </c>
       <c r="M20" s="3">
         <v>-200</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-400</v>
       </c>
       <c r="I21" s="3">
         <v>-400</v>
       </c>
       <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-63100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1304,60 +1344,66 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-65700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,11 +1420,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-3500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1395,13 +1441,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-65700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-65700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1590,8 +1651,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1603,25 +1664,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-16500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-20100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-4400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1775,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
+        <v>400</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
       </c>
       <c r="M32" s="3">
         <v>200</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-65700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-65700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44499</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43771</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43680</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43589</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43498</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2055,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,184 +2147,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E44" s="3">
         <v>30200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>25000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>22600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>24500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>27200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>101100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>94800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>55100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>106100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>106200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E46" s="3">
         <v>36500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>114200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>132200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>132800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>115400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2277,8 +2382,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2286,43 +2394,46 @@
         <v>4500</v>
       </c>
       <c r="E48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F48" s="3">
         <v>4700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5000</v>
       </c>
       <c r="G48" s="3">
         <v>5000</v>
       </c>
       <c r="H48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I48" s="3">
         <v>5200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2330,43 +2441,46 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2570,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
         <v>8200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>9800</v>
       </c>
       <c r="J52" s="3">
         <v>9800</v>
       </c>
       <c r="K52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="L52" s="3">
         <v>10500</v>
       </c>
       <c r="M52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N52" s="3">
         <v>9400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E54" s="3">
         <v>49200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>141500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>150200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>151000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>138000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,211 +2751,224 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>67400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>15100</v>
       </c>
       <c r="P59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E60" s="3">
         <v>15900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>80200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>72900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5300</v>
       </c>
       <c r="G61" s="3">
         <v>5300</v>
       </c>
       <c r="H61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I61" s="3">
         <v>5200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2841,52 +2984,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E62" s="3">
         <v>17300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3172,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E66" s="3">
         <v>37400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>47200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>116600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>95000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3332,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-115100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-114200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-114300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-112900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-112700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-115300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-89300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-66200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-58000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-50200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E76" s="3">
         <v>11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44499</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43771</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43680</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43589</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43498</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-65700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,13 +3828,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
@@ -3648,7 +3847,7 @@
         <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -3657,25 +3856,28 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>1300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1100</v>
       </c>
       <c r="M83" s="3">
         <v>1100</v>
       </c>
       <c r="N83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O83" s="3">
         <v>1000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2300</v>
       </c>
       <c r="P83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4108,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,22 +4176,23 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
@@ -3983,25 +4204,28 @@
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-800</v>
       </c>
       <c r="O91" s="3">
         <v>-800</v>
       </c>
       <c r="P91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,22 +4315,25 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
@@ -4112,28 +4342,31 @@
         <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-600</v>
       </c>
       <c r="M94" s="3">
         <v>-600</v>
       </c>
       <c r="N94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="O94" s="3">
         <v>-800</v>
       </c>
       <c r="P94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4383,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4428,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,52 +4569,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>4300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4414,48 +4663,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43862</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43771</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43680</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43589</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43498</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E8" s="3">
         <v>36000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>42300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>127400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E9" s="3">
         <v>29900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>90600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E10" s="3">
         <v>6100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +909,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,8 +957,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,28 +1007,31 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1900</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1020,26 +1039,29 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>59700</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1047,10 +1069,10 @@
         <v>300</v>
       </c>
       <c r="E15" s="3">
+        <v>300</v>
+      </c>
+      <c r="F15" s="3">
         <v>800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
@@ -1059,7 +1081,7 @@
         <v>600</v>
       </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
@@ -1068,25 +1090,28 @@
         <v>500</v>
       </c>
       <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3">
         <v>1800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E17" s="3">
         <v>41400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>192900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-65500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,102 +1246,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-400</v>
       </c>
       <c r="J20" s="3">
         <v>-400</v>
       </c>
       <c r="K20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-200</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-400</v>
       </c>
       <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
         <v>-4900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-63100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1347,63 +1386,69 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-65700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1423,11 +1468,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-3500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1444,13 +1489,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-65700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-65700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1654,8 +1714,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1667,25 +1727,28 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-16500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-20100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,102 +1844,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>400</v>
       </c>
       <c r="J32" s="3">
         <v>400</v>
       </c>
       <c r="K32" s="3">
+        <v>400</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>200</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-65700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-65700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43862</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43771</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43680</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43589</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43498</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,55 +2141,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,196 +2239,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E44" s="3">
         <v>29300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>30200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>25000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>24500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>27200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>101100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>20100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>94800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>106100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>106200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E46" s="3">
         <v>34600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>114200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>132200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>132800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>115400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2385,55 +2489,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E48" s="3">
         <v>4500</v>
       </c>
       <c r="F48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G48" s="3">
         <v>4700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5000</v>
       </c>
       <c r="H48" s="3">
         <v>5000</v>
       </c>
       <c r="I48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J48" s="3">
         <v>5200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2444,43 +2554,46 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,55 +2689,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>9800</v>
       </c>
       <c r="K52" s="3">
         <v>9800</v>
       </c>
       <c r="L52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="M52" s="3">
         <v>10500</v>
       </c>
       <c r="N52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="O52" s="3">
         <v>9400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2789,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E54" s="3">
         <v>46700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>141500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>150200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>151000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>138000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,226 +2881,239 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E58" s="3">
         <v>10000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>67400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>15100</v>
       </c>
       <c r="Q59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>80200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>72900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E61" s="3">
         <v>4400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>5300</v>
       </c>
       <c r="H61" s="3">
         <v>5300</v>
       </c>
       <c r="I61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J61" s="3">
         <v>5200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2987,55 +3129,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E62" s="3">
         <v>15800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,55 +3329,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E66" s="3">
         <v>39400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>116600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>95000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3382,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3599,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-120900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-115100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-114200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-114300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-112900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-112700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-115300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-89300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-66200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-58000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3799,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>56000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>63700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43862</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43771</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43680</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43589</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43498</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-65700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,8 +4026,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3838,7 +4036,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
@@ -3850,7 +4048,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3859,25 +4057,28 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>1300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1100</v>
       </c>
       <c r="N83" s="3">
         <v>1100</v>
       </c>
       <c r="O83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P83" s="3">
         <v>1000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>2300</v>
       </c>
       <c r="Q83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>27800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,8 +4396,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,16 +4406,16 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -4207,25 +4427,28 @@
         <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-800</v>
       </c>
       <c r="P91" s="3">
         <v>-800</v>
       </c>
       <c r="Q91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,8 +4544,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4327,16 +4556,16 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
       </c>
       <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
@@ -4345,28 +4574,31 @@
         <v>-300</v>
       </c>
       <c r="K94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L94" s="3">
         <v>11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-600</v>
       </c>
       <c r="N94" s="3">
         <v>-600</v>
       </c>
       <c r="O94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="P94" s="3">
         <v>-800</v>
       </c>
       <c r="Q94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4431,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,55 +4814,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E100" s="3">
         <v>4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4666,51 +4914,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,246 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43771</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43680</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43589</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43498</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E8" s="3">
         <v>31800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>36000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>127400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E9" s="3">
         <v>24900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>29900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>90600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E10" s="3">
         <v>6900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,8 +923,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -960,8 +974,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,31 +1027,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1900</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1042,40 +1062,43 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>59700</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>300</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
       </c>
       <c r="F15" s="3">
+        <v>300</v>
+      </c>
+      <c r="G15" s="3">
         <v>800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>600</v>
@@ -1084,7 +1107,7 @@
         <v>600</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1093,25 +1116,28 @@
         <v>500</v>
       </c>
       <c r="M15" s="3">
+        <v>500</v>
+      </c>
+      <c r="N15" s="3">
         <v>1800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E17" s="3">
         <v>35500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>37800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>192900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-65500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,58 +1280,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
       </c>
       <c r="L20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-200</v>
       </c>
       <c r="O20" s="3">
         <v>-200</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,49 +1343,52 @@
         <v>-4100</v>
       </c>
       <c r="E21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-400</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
       </c>
       <c r="L21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-63100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1389,16 +1429,19 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1406,49 +1449,52 @@
         <v>-4400</v>
       </c>
       <c r="E23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-65700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1471,11 +1517,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3500</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1492,13 +1538,16 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,8 +1596,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1556,49 +1608,52 @@
         <v>-4400</v>
       </c>
       <c r="E26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-65700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1606,49 +1661,52 @@
         <v>-4400</v>
       </c>
       <c r="E27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-65700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1717,8 +1778,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1730,25 +1791,28 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-16500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-20100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,58 +1914,64 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
       </c>
       <c r="L32" s="3">
+        <v>400</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>200</v>
       </c>
       <c r="O32" s="3">
         <v>200</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1906,49 +1979,52 @@
         <v>-4400</v>
       </c>
       <c r="E33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-65700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,8 +2073,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2006,104 +2085,110 @@
         <v>-4400</v>
       </c>
       <c r="E35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-65700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43771</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43680</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43589</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43498</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,58 +2228,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,208 +2332,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E44" s="3">
         <v>32300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>30200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>25000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>24500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>27200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>101100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>20200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>20100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>94800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>106100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>106200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E46" s="3">
         <v>37500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>114200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>132200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>132800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>115400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2492,58 +2597,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4500</v>
       </c>
       <c r="F48" s="3">
         <v>4500</v>
       </c>
       <c r="G48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H48" s="3">
         <v>4700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5000</v>
       </c>
       <c r="I48" s="3">
         <v>5000</v>
       </c>
       <c r="J48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2557,43 +2668,46 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,58 +2809,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E52" s="3">
         <v>6800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>9800</v>
       </c>
       <c r="L52" s="3">
         <v>9800</v>
       </c>
       <c r="M52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="N52" s="3">
         <v>10500</v>
       </c>
       <c r="O52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="P52" s="3">
         <v>9400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,58 +2915,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E54" s="3">
         <v>48800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>141500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>150200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>151000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>138000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,8 +3012,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2891,232 +3022,244 @@
         <v>7700</v>
       </c>
       <c r="E57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3">
         <v>10500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>67400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>15100</v>
       </c>
       <c r="R59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E60" s="3">
         <v>21000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>80200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>72900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>49400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E61" s="3">
         <v>7900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>5300</v>
       </c>
       <c r="I61" s="3">
         <v>5300</v>
       </c>
       <c r="J61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K61" s="3">
         <v>5200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3132,58 +3275,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E62" s="3">
         <v>15400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,58 +3487,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E66" s="3">
         <v>44400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>93300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>116600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>102200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>95000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,58 +3773,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-129700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-125300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-120900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-115100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-114200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-112900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-112700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-115300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-114400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-109000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-89300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-66200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-50200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,58 +3985,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>56000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>63700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,63 +4091,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43771</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43680</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43589</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43498</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3966,49 +4161,52 @@
         <v>-4400</v>
       </c>
       <c r="E81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-65700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,8 +4225,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4039,7 +4238,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
@@ -4051,7 +4250,7 @@
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -4060,25 +4259,28 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>1300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1100</v>
       </c>
       <c r="O83" s="3">
         <v>1100</v>
       </c>
       <c r="P83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>2300</v>
       </c>
       <c r="R83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>27800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,28 +4617,29 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
@@ -4430,25 +4651,28 @@
         <v>-300</v>
       </c>
       <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-800</v>
       </c>
       <c r="Q91" s="3">
         <v>-800</v>
       </c>
       <c r="R91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,28 +4774,31 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
       </c>
       <c r="H94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
@@ -4577,28 +4807,31 @@
         <v>-300</v>
       </c>
       <c r="L94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M94" s="3">
         <v>11500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-600</v>
       </c>
       <c r="O94" s="3">
         <v>-600</v>
       </c>
       <c r="P94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="Q94" s="3">
         <v>-800</v>
       </c>
       <c r="R94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,58 +5060,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4917,54 +5166,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,259 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43771</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43680</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43589</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43498</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E8" s="3">
         <v>33900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>127400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E9" s="3">
         <v>27200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>29900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>90600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E10" s="3">
         <v>6700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +937,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +991,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,8 +1047,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,23 +1061,23 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1900</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1065,43 +1085,46 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>59700</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>300</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
       </c>
       <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3">
         <v>800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
@@ -1110,7 +1133,7 @@
         <v>600</v>
       </c>
       <c r="K15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L15" s="3">
         <v>500</v>
@@ -1119,25 +1142,28 @@
         <v>500</v>
       </c>
       <c r="N15" s="3">
+        <v>500</v>
+      </c>
+      <c r="O15" s="3">
         <v>1800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E17" s="3">
         <v>37400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>31500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>192900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-65500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,114 +1314,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-400</v>
       </c>
       <c r="L20" s="3">
         <v>-400</v>
       </c>
       <c r="M20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
       </c>
       <c r="P20" s="3">
         <v>-200</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4100</v>
+        <v>-3200</v>
       </c>
       <c r="E21" s="3">
         <v>-4100</v>
       </c>
       <c r="F21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
         <v>-4900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-63100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1432,69 +1472,75 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4400</v>
+        <v>-3600</v>
       </c>
       <c r="E23" s="3">
         <v>-4400</v>
       </c>
       <c r="F23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-65700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1520,11 +1566,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-3500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1541,13 +1587,16 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4400</v>
+        <v>-3600</v>
       </c>
       <c r="E26" s="3">
         <v>-4400</v>
       </c>
       <c r="F26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-65700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4400</v>
+        <v>-3600</v>
       </c>
       <c r="E27" s="3">
         <v>-4400</v>
       </c>
       <c r="F27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-65700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1816,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1781,8 +1842,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1794,25 +1855,28 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-16500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-20100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,114 +1984,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>400</v>
       </c>
       <c r="L32" s="3">
         <v>400</v>
       </c>
       <c r="M32" s="3">
+        <v>400</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>200</v>
       </c>
       <c r="P32" s="3">
         <v>200</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4400</v>
+        <v>-3600</v>
       </c>
       <c r="E33" s="3">
         <v>-4400</v>
       </c>
       <c r="F33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-65700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4400</v>
+        <v>-3600</v>
       </c>
       <c r="E35" s="3">
         <v>-4400</v>
       </c>
       <c r="F35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-65700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43771</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43680</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43589</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43498</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,61 +2315,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2335,220 +2425,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E44" s="3">
         <v>29400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>32300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>30200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>25000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>24500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>27200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>101100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>20200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>20100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>94800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>106100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>106200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E46" s="3">
         <v>34500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>80100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>114200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>132200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>132800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>115400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2600,66 +2705,72 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4500</v>
       </c>
       <c r="G48" s="3">
         <v>4500</v>
       </c>
       <c r="H48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I48" s="3">
         <v>4700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5000</v>
       </c>
       <c r="J48" s="3">
         <v>5000</v>
       </c>
       <c r="K48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L48" s="3">
         <v>5200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2671,43 +2782,46 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,61 +2929,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E52" s="3">
         <v>6400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>9800</v>
       </c>
       <c r="M52" s="3">
         <v>9800</v>
       </c>
       <c r="N52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="O52" s="3">
         <v>10500</v>
       </c>
       <c r="P52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>9400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,61 +3041,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E54" s="3">
         <v>45100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>141500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>150200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>151000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>138000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,114 +3143,121 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7700</v>
+        <v>12600</v>
       </c>
       <c r="E57" s="3">
         <v>7700</v>
       </c>
       <c r="F57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5900</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3128,141 +3265,147 @@
         <v>2600</v>
       </c>
       <c r="E59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>67400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>15100</v>
       </c>
       <c r="S59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E60" s="3">
         <v>14200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>80200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>72900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>49400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E61" s="3">
         <v>8500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>5300</v>
       </c>
       <c r="J61" s="3">
         <v>5300</v>
       </c>
       <c r="K61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L61" s="3">
         <v>5200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3278,61 +3421,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E62" s="3">
         <v>15200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,61 +3645,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E66" s="3">
         <v>37900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>93300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>116600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>102200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>95000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,61 +3947,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-133300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-129700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-125300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-120900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-115100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-112900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-112700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-115300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-114400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-109000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-89300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-58000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-50200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,61 +4171,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>7200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>56000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43771</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43680</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43589</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43498</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4400</v>
+        <v>-3600</v>
       </c>
       <c r="E81" s="3">
         <v>-4400</v>
       </c>
       <c r="F81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-65700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,13 +4424,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -4241,7 +4440,7 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
@@ -4253,7 +4452,7 @@
         <v>600</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
@@ -4262,25 +4461,28 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>1300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1100</v>
       </c>
       <c r="P83" s="3">
         <v>1100</v>
       </c>
       <c r="Q83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R83" s="3">
         <v>1000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>2300</v>
       </c>
       <c r="S83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4758,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>27800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,8 +4838,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,22 +4848,22 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-400</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
@@ -4654,25 +4875,28 @@
         <v>-300</v>
       </c>
       <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-800</v>
       </c>
       <c r="R91" s="3">
         <v>-800</v>
       </c>
       <c r="S91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,8 +5004,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4786,22 +5016,22 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-400</v>
       </c>
       <c r="G94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-300</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
@@ -4810,28 +5040,31 @@
         <v>-300</v>
       </c>
       <c r="M94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N94" s="3">
         <v>11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-600</v>
       </c>
       <c r="P94" s="3">
         <v>-600</v>
       </c>
       <c r="Q94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="R94" s="3">
         <v>-800</v>
       </c>
       <c r="S94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,61 +5306,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5169,57 +5418,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,259 +665,272 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44863</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43862</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43771</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43680</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43589</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43498</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E8" s="3">
         <v>29100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>35100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>127400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E9" s="3">
         <v>22600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>29900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>90600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="3">
         <v>6500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>36800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +951,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,8 +1008,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,8 +1067,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1064,23 +1084,23 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1900</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1088,26 +1108,29 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>59700</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1117,17 +1140,17 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>300</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
       </c>
       <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="3">
         <v>800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
@@ -1136,7 +1159,7 @@
         <v>600</v>
       </c>
       <c r="L15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M15" s="3">
         <v>500</v>
@@ -1145,25 +1168,28 @@
         <v>500</v>
       </c>
       <c r="O15" s="3">
+        <v>500</v>
+      </c>
+      <c r="P15" s="3">
         <v>1800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1181,120 +1207,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E17" s="3">
         <v>31800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>39300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>192900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-65500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1315,120 +1348,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-400</v>
       </c>
       <c r="M20" s="3">
         <v>-400</v>
       </c>
       <c r="N20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-200</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-4100</v>
       </c>
       <c r="F21" s="3">
         <v>-4100</v>
       </c>
       <c r="G21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-400</v>
       </c>
       <c r="M21" s="3">
         <v>-400</v>
       </c>
       <c r="N21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O21" s="3">
         <v>-4900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-63100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1475,72 +1515,78 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-4400</v>
       </c>
       <c r="F23" s="3">
         <v>-4400</v>
       </c>
       <c r="G23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-65700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1569,11 +1615,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-3500</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1590,13 +1636,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1651,120 +1700,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-4400</v>
       </c>
       <c r="F26" s="3">
         <v>-4400</v>
       </c>
       <c r="G26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-65700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-4400</v>
       </c>
       <c r="F27" s="3">
         <v>-4400</v>
       </c>
       <c r="G27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-65700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1819,8 +1877,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1845,8 +1906,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1858,25 +1919,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-16500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1931,8 +1995,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1987,120 +2054,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>400</v>
       </c>
       <c r="M32" s="3">
         <v>400</v>
       </c>
       <c r="N32" s="3">
+        <v>400</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>200</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-4400</v>
       </c>
       <c r="F33" s="3">
         <v>-4400</v>
       </c>
       <c r="G33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-65700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2155,125 +2231,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-4400</v>
       </c>
       <c r="F35" s="3">
         <v>-4400</v>
       </c>
       <c r="G35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-65700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44863</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43862</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43771</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43680</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43589</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43498</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2294,8 +2379,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2316,64 +2402,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2428,232 +2518,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E44" s="3">
         <v>37400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>32300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>30200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>25000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>101100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>20200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>20100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>94800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>106100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>106200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E46" s="3">
         <v>42800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>80100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>114200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>132200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>132800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>115400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2708,73 +2813,79 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4500</v>
       </c>
       <c r="H48" s="3">
         <v>4500</v>
       </c>
       <c r="I48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J48" s="3">
         <v>4700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5000</v>
       </c>
       <c r="K48" s="3">
         <v>5000</v>
       </c>
       <c r="L48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
@@ -2785,43 +2896,46 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2876,8 +2990,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2932,64 +3049,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>5800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>9800</v>
       </c>
       <c r="N52" s="3">
         <v>9800</v>
       </c>
       <c r="O52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="P52" s="3">
         <v>10500</v>
       </c>
       <c r="Q52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="R52" s="3">
         <v>9400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3044,64 +3167,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E54" s="3">
         <v>52400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>141500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>150200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>151000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>138000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3122,8 +3251,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3144,271 +3274,284 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>12600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7700</v>
       </c>
       <c r="F57" s="3">
         <v>7700</v>
       </c>
       <c r="G57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
         <v>9500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5900</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="E59" s="3">
         <v>2600</v>
       </c>
       <c r="F59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>50100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>67400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>15100</v>
       </c>
       <c r="T59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E60" s="3">
         <v>24700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>80200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>72900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>49400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E61" s="3">
         <v>9200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>5300</v>
       </c>
       <c r="K61" s="3">
         <v>5300</v>
       </c>
       <c r="L61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M61" s="3">
         <v>5200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3424,64 +3567,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E62" s="3">
         <v>14800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>24900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3536,8 +3685,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3592,8 +3744,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3648,64 +3803,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E66" s="3">
         <v>48700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>93300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>116600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>102200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>95000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>74300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3726,8 +3887,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3782,8 +3944,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3838,8 +4003,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3894,8 +4062,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3950,64 +4121,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-133300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-129700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-125300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-120900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-115100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-112900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-112700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-115300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-114400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-109000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-89300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-66200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-58000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-50200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4062,8 +4239,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4118,8 +4298,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4174,64 +4357,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>56000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>63700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4286,125 +4475,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44863</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43862</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43771</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43680</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43589</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43498</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-4400</v>
       </c>
       <c r="F81" s="3">
         <v>-4400</v>
       </c>
       <c r="G81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-65700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4425,16 +4623,17 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -4443,7 +4642,7 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
@@ -4455,7 +4654,7 @@
         <v>600</v>
       </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -4464,25 +4663,28 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
         <v>1300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1100</v>
       </c>
       <c r="Q83" s="3">
         <v>1100</v>
       </c>
       <c r="R83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S83" s="3">
         <v>1000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>2300</v>
       </c>
       <c r="T83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4537,8 +4739,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4593,8 +4798,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4649,8 +4857,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4705,8 +4916,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4761,64 +4975,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4839,34 +5059,35 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
@@ -4878,25 +5099,28 @@
         <v>-300</v>
       </c>
       <c r="O91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-800</v>
       </c>
       <c r="S91" s="3">
         <v>-800</v>
       </c>
       <c r="T91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4951,8 +5175,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5007,34 +5234,37 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-400</v>
       </c>
       <c r="H94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
@@ -5043,28 +5273,31 @@
         <v>-300</v>
       </c>
       <c r="N94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O94" s="3">
         <v>11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-600</v>
       </c>
       <c r="Q94" s="3">
         <v>-600</v>
       </c>
       <c r="R94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="S94" s="3">
         <v>-800</v>
       </c>
       <c r="T94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5085,8 +5318,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5141,8 +5375,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5197,8 +5434,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5253,8 +5493,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5309,64 +5552,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5421,60 +5670,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>KSPN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,272 +665,284 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43953</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43862</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43771</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43680</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43589</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43498</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E8" s="3">
         <v>33400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>36000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>42300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>35100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>127400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E9" s="3">
         <v>29200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>32400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>90600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E10" s="3">
         <v>4300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>36800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1011,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1070,8 +1086,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1087,23 +1106,23 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1900</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1111,31 +1130,34 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>59700</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>200</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1143,17 +1165,17 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>300</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
       </c>
       <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
         <v>800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -1162,7 +1184,7 @@
         <v>600</v>
       </c>
       <c r="M15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N15" s="3">
         <v>500</v>
@@ -1171,25 +1193,28 @@
         <v>500</v>
       </c>
       <c r="P15" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>400</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1208,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E17" s="3">
         <v>39000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>31500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>37800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>39300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>192900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-65500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1349,126 +1381,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-400</v>
       </c>
       <c r="N20" s="3">
         <v>-400</v>
       </c>
       <c r="O20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-200</v>
       </c>
       <c r="R20" s="3">
         <v>-200</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-4100</v>
       </c>
       <c r="G21" s="3">
         <v>-4100</v>
       </c>
       <c r="H21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
       </c>
       <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>-4900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-63100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,75 +1557,81 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-4400</v>
       </c>
       <c r="G23" s="3">
         <v>-4400</v>
       </c>
       <c r="H23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-65700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1618,11 +1663,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-3500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1639,13 +1684,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1703,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-4400</v>
       </c>
       <c r="G26" s="3">
         <v>-4400</v>
       </c>
       <c r="H26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-65700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-4400</v>
       </c>
       <c r="G27" s="3">
         <v>-4400</v>
       </c>
       <c r="H27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-65700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1880,37 +1937,40 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1922,25 +1982,28 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-20100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1998,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2057,126 +2123,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>400</v>
       </c>
       <c r="N32" s="3">
         <v>400</v>
       </c>
       <c r="O32" s="3">
+        <v>400</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>200</v>
       </c>
       <c r="R32" s="3">
         <v>200</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-4400</v>
       </c>
       <c r="G33" s="3">
         <v>-4400</v>
       </c>
       <c r="H33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-65700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2234,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-4400</v>
       </c>
       <c r="G35" s="3">
         <v>-4400</v>
       </c>
       <c r="H35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-65700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43953</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43862</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43771</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43680</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43589</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43498</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2380,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2403,67 +2488,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2521,244 +2610,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E44" s="3">
         <v>26700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>37400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>32300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>30200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>25000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>27200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>17800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>101100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>20200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>20100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>94800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>55100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>106100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>106200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E46" s="3">
         <v>32000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>80100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>114200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>132200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>132800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>115400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2816,78 +2920,84 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4500</v>
       </c>
       <c r="I48" s="3">
         <v>4500</v>
       </c>
       <c r="J48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5000</v>
       </c>
       <c r="L48" s="3">
         <v>5000</v>
       </c>
       <c r="M48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N48" s="3">
         <v>5200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2899,43 +3009,46 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2993,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3052,67 +3168,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>9800</v>
       </c>
       <c r="O52" s="3">
         <v>9800</v>
       </c>
       <c r="P52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="Q52" s="3">
         <v>10500</v>
       </c>
       <c r="R52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="S52" s="3">
         <v>9400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3170,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E54" s="3">
         <v>40700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>52400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>97800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>141500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>150200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>151000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>138000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3252,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3275,286 +3404,299 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7700</v>
       </c>
       <c r="G57" s="3">
         <v>7700</v>
       </c>
       <c r="H57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E58" s="3">
         <v>8800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5900</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>12100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3100</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2600</v>
       </c>
       <c r="F59" s="3">
         <v>2600</v>
       </c>
       <c r="G59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>50100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>64800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>67400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>15100</v>
       </c>
       <c r="U59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E60" s="3">
         <v>19400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>71100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>78800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>80200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>72900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>49400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E61" s="3">
         <v>9800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>5300</v>
       </c>
       <c r="L61" s="3">
         <v>5300</v>
       </c>
       <c r="M61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N61" s="3">
         <v>5200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3570,67 +3712,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E62" s="3">
         <v>12600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>24900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3688,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3747,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3806,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E66" s="3">
         <v>41800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>48700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>44400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>93300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>116600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>102200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>95000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3888,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3947,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4006,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4065,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4124,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-139900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-133300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-129700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-125300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-120900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-115100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-112900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-112700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-115300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-114400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-109000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-89300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-66200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-58000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-50200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4242,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4301,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4360,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>56000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>63700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4478,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43953</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43862</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43771</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43680</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43589</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43498</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-4400</v>
       </c>
       <c r="G81" s="3">
         <v>-4400</v>
       </c>
       <c r="H81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-65700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4624,19 +4821,20 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4645,7 +4843,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
@@ -4657,7 +4855,7 @@
         <v>600</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -4666,25 +4864,28 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1100</v>
       </c>
       <c r="R83" s="3">
         <v>1100</v>
       </c>
       <c r="S83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T83" s="3">
         <v>1000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>2300</v>
       </c>
       <c r="U83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4742,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4801,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4860,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4919,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4978,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>27800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5060,8 +5279,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5069,28 +5289,28 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
@@ -5102,25 +5322,28 @@
         <v>-300</v>
       </c>
       <c r="P91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-800</v>
       </c>
       <c r="T91" s="3">
         <v>-800</v>
       </c>
       <c r="U91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5178,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5237,8 +5463,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5246,28 +5475,28 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-400</v>
       </c>
       <c r="I94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
       </c>
       <c r="K94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-300</v>
       </c>
       <c r="M94" s="3">
         <v>-300</v>
@@ -5276,28 +5505,31 @@
         <v>-300</v>
       </c>
       <c r="O94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P94" s="3">
         <v>11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-600</v>
       </c>
       <c r="R94" s="3">
         <v>-600</v>
       </c>
       <c r="S94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="T94" s="3">
         <v>-800</v>
       </c>
       <c r="U94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5319,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5378,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5437,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5496,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5555,67 +5797,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-27400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5673,63 +5921,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KSPN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,297 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
         <v>45045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43953</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43862</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43771</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43680</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43589</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43498</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E8" s="3">
         <v>32900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>36000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>42300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>35100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>127400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E9" s="3">
         <v>25500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>29200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>29900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>25900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>31200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>32400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>90600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>64600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E10" s="3">
         <v>7400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>36800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,8 +1106,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,23 +1129,23 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1900</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1133,34 +1153,37 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>59700</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="E15" s="3">
+        <v>200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1168,17 +1191,17 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>300</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
       </c>
       <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
         <v>800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>600</v>
       </c>
       <c r="L15" s="3">
         <v>600</v>
@@ -1187,7 +1210,7 @@
         <v>600</v>
       </c>
       <c r="N15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O15" s="3">
         <v>500</v>
@@ -1196,25 +1219,28 @@
         <v>500</v>
       </c>
       <c r="Q15" s="3">
+        <v>500</v>
+      </c>
+      <c r="R15" s="3">
         <v>1800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>400</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E17" s="3">
         <v>34200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>31500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>37800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>39300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>192900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>105700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-65500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,132 +1415,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-400</v>
       </c>
       <c r="O20" s="3">
         <v>-400</v>
       </c>
       <c r="P20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-200</v>
       </c>
       <c r="S20" s="3">
         <v>-200</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4100</v>
       </c>
       <c r="H21" s="3">
         <v>-4100</v>
       </c>
       <c r="I21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-63100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1560,83 +1600,89 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-4400</v>
       </c>
       <c r="H23" s="3">
         <v>-4400</v>
       </c>
       <c r="I23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-65700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1666,11 +1712,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-3500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1687,13 +1733,16 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-4400</v>
       </c>
       <c r="H26" s="3">
         <v>-4400</v>
       </c>
       <c r="I26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-65700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-4400</v>
       </c>
       <c r="H27" s="3">
         <v>-4400</v>
       </c>
       <c r="I27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-65700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1966,14 +2027,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1985,25 +2046,28 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-16500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-20100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,132 +2193,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>400</v>
       </c>
       <c r="O32" s="3">
         <v>400</v>
       </c>
       <c r="P32" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>200</v>
       </c>
       <c r="S32" s="3">
         <v>200</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-4400</v>
       </c>
       <c r="H33" s="3">
         <v>-4400</v>
       </c>
       <c r="I33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-23200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-65700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-4400</v>
       </c>
       <c r="H35" s="3">
         <v>-4400</v>
       </c>
       <c r="I35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-23200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-65700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
         <v>45045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43953</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43862</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43771</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43680</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43589</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43498</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,70 +2575,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2613,256 +2703,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E44" s="3">
         <v>27700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>26700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>37400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>32300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>30200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>25000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>24500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>27200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>20600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>17200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>101100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>20200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>20100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>94800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>131300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>55100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>106100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>106200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E46" s="3">
         <v>32600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>80100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>114200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>132200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>132800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>115400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2923,81 +3028,87 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4500</v>
       </c>
       <c r="J48" s="3">
         <v>4500</v>
       </c>
       <c r="K48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L48" s="3">
         <v>4700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5000</v>
       </c>
       <c r="M48" s="3">
         <v>5000</v>
       </c>
       <c r="N48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O48" s="3">
         <v>5200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3012,43 +3123,46 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,8 +3288,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3180,61 +3300,64 @@
         <v>5500</v>
       </c>
       <c r="E52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>9800</v>
       </c>
       <c r="P52" s="3">
         <v>9800</v>
       </c>
       <c r="Q52" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="R52" s="3">
         <v>10500</v>
       </c>
       <c r="S52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="T52" s="3">
         <v>9400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,70 +3418,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E54" s="3">
         <v>41300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>52400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>97800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>141500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>150200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>151000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>138000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,301 +3535,314 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
         <v>9100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>7700</v>
       </c>
       <c r="H57" s="3">
         <v>7700</v>
       </c>
       <c r="I57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E58" s="3">
         <v>9300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5900</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>12100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3100</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2600</v>
       </c>
       <c r="G59" s="3">
         <v>2600</v>
       </c>
       <c r="H59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>50100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>64800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>67400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>15100</v>
       </c>
       <c r="V59" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E60" s="3">
         <v>21700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>78800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>80200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>72900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>49400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>84800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>10400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>5300</v>
       </c>
       <c r="M61" s="3">
         <v>5300</v>
       </c>
       <c r="N61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O61" s="3">
         <v>5200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3715,70 +3858,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>24900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4118,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E66" s="3">
         <v>44500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>93300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>116600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>102200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>95000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>74300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>110600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4468,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-143300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-139900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-133300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-129700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-125300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-120900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-115100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-114300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-112900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-112700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-115300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-114400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-109000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-89300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-66200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-58000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-50200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4728,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>56000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>63700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
         <v>45045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43953</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43862</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43771</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43680</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43589</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43498</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43407</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-4400</v>
       </c>
       <c r="H81" s="3">
         <v>-4400</v>
       </c>
       <c r="I81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-23200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-65700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,8 +5020,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4831,13 +5030,13 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4846,7 +5045,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -4858,7 +5057,7 @@
         <v>600</v>
       </c>
       <c r="N83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -4867,25 +5066,28 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
+        <v>500</v>
+      </c>
+      <c r="R83" s="3">
         <v>1300</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1100</v>
       </c>
       <c r="S83" s="3">
         <v>1100</v>
       </c>
       <c r="T83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U83" s="3">
         <v>1000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>2300</v>
       </c>
       <c r="V83" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>27800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,40 +5500,41 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-300</v>
@@ -5325,25 +5546,28 @@
         <v>-300</v>
       </c>
       <c r="Q91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-800</v>
       </c>
       <c r="U91" s="3">
         <v>-800</v>
       </c>
       <c r="V91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,40 +5693,43 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-400</v>
       </c>
       <c r="J94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
       </c>
       <c r="L94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-300</v>
       </c>
       <c r="N94" s="3">
         <v>-300</v>
@@ -5508,28 +5738,31 @@
         <v>-300</v>
       </c>
       <c r="P94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q94" s="3">
         <v>11500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-600</v>
       </c>
       <c r="S94" s="3">
         <v>-600</v>
       </c>
       <c r="T94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="U94" s="3">
         <v>-800</v>
       </c>
       <c r="V94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W94" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5785,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,70 +6043,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-27400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5924,66 +6173,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
     </row>
